--- a/yield_prediction/results/graph_descriptors/WLlinear_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.486</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.855</v>
+        <v>18.648</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.707</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.9</v>
+        <v>24.408</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.767</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.778</v>
+        <v>12.724</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.813285961898245</v>
+        <v>2.779399258654919</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.08260285348396</v>
+        <v>22.11556728291055</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.98866728735423</v>
+        <v>27.23462273481549</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.308319023232514</v>
+        <v>1.338604598903132</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.61135038852201</v>
+        <v>23.23507918245383</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.35183348702316</v>
+        <v>29.03194997163027</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.25777288155928</v>
+        <v>11.43017467403563</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.9019718154094</v>
+        <v>30.946217902113</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>39.55155477250813</v>
+        <v>36.11289349993477</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>40.78159009538203</v>
+        <v>36.1083661774682</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>45.78325370143965</v>
+        <v>41.57218997185002</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>51.47685775602102</v>
+        <v>46.25929603098346</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.563623309722175</v>
+        <v>11.20818249763186</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35.88712675570039</v>
+        <v>33.7243066009883</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>47.91835282227137</v>
+        <v>41.59460054693621</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.878049065399502</v>
+        <v>8.390080709869686</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.42774128709587</v>
+        <v>32.67137701489882</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42.99724689709679</v>
+        <v>42.25788250984422</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.6418564105484776</v>
+        <v>1.736254093205634</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.70993272236741</v>
+        <v>29.23264255713351</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40.39496083168426</v>
+        <v>40.08849950106288</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.41938493849211</v>
+        <v>15.21615624499554</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36.10777577241592</v>
+        <v>39.72332993774964</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>46.33439492731826</v>
+        <v>49.39901414833739</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>38.30848627435964</v>
+        <v>40.5508443636717</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>47.56292051781902</v>
+        <v>49.06017871807819</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>56.57179485608015</v>
+        <v>56.83914839792315</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8.502853168423584</v>
+        <v>15.70417691267174</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>48.90542663446725</v>
+        <v>50.7727562577559</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>64.98980242844719</v>
+        <v>60.5218240443717</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.857971342552247</v>
+        <v>12.87647027176123</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42.28577885256264</v>
+        <v>42.43213323084759</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>52.86477117611231</v>
+        <v>52.06440642094837</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.573563422512692</v>
+        <v>6.941426082098832</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.52939511416781</v>
+        <v>40.41056133018716</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.22491117991362</v>
+        <v>51.31824608056019</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>21.10409910664443</v>
+        <v>26.26086801868136</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53.44747155964141</v>
+        <v>56.0914732978895</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>63.68326966860708</v>
+        <v>65.81335095880041</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>63.48085748801813</v>
+        <v>67.75569728242547</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>73.34875361638635</v>
+        <v>75.18957534041022</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>84.88526657986701</v>
+        <v>85.14766605067712</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>19.46640124037656</v>
+        <v>29.34779900048885</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>70.33589673039583</v>
+        <v>72.01699944365453</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>86.43470913770607</v>
+        <v>82.05600588461795</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.289853426522832</v>
+        <v>11.30938354435412</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.77335072000155</v>
+        <v>37.33858070517199</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.45281164810372</v>
+        <v>40.81366880442314</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9.404563979449016</v>
+        <v>11.85343475239825</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>35.36654707538146</v>
+        <v>41.32916403583747</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40.5398857819162</v>
+        <v>45.26438936825144</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23.7896200125153</v>
+        <v>26.45217713214198</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>46.51128667385503</v>
+        <v>52.72351157366455</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>51.03894071253323</v>
+        <v>56.23092676995869</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>50.11493021707263</v>
+        <v>54.29354223444358</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>58.71577982979807</v>
+        <v>62.73196941509781</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.3026326222125</v>
+        <v>64.85675044888379</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.08005340662363</v>
+        <v>20.01186470967659</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>47.81657783475548</v>
+        <v>51.63349528418811</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>54.93764961028717</v>
+        <v>56.99551852889325</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5.668998438816594</v>
+        <v>8.405616866249446</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>36.02930562559565</v>
+        <v>37.07519305269739</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.00634750414146</v>
+        <v>44.21598512647486</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.602666679902526</v>
+        <v>2.007751836547911</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>35.16724916605648</v>
+        <v>34.47347335387499</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>42.88065918531467</v>
+        <v>42.55977938688761</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16.10516585340232</v>
+        <v>19.70510512573415</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>45.48055108723986</v>
+        <v>48.64138078715514</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>52.23125000851748</v>
+        <v>55.84860026413475</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>43.96682958294744</v>
+        <v>47.03605187425346</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>55.99343832837982</v>
+        <v>57.23918914046312</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>61.85477425899975</v>
+        <v>62.41141331500025</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9.803522554449003</v>
+        <v>15.56163929853582</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>56.00498249316527</v>
+        <v>56.60521275065506</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>66.62244821443602</v>
+        <v>63.50264093538123</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10.61734443746407</v>
+        <v>11.79680759462203</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>47.80555838421438</v>
+        <v>45.9997702689749</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>54.40775357346783</v>
+        <v>53.42075799469937</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4.562290278304687</v>
+        <v>5.771978754164103</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.67540770657882</v>
+        <v>44.50376376666713</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52.9744091184091</v>
+        <v>52.90736622385187</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.53267061073301</v>
+        <v>29.23699788470103</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>62.51445775548106</v>
+        <v>63.75813450513762</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>68.90247042876372</v>
+        <v>71.24815616137361</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>68.27061047735288</v>
+        <v>71.60858942877839</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>81.01373922944843</v>
+        <v>81.33559776366974</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>89.07502736736139</v>
+        <v>89.06473243556582</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>19.96053408144948</v>
+        <v>27.37651945399177</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>76.55251012051836</v>
+        <v>76.6072684069662</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>86.59954471302247</v>
+        <v>84.02905783758845</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>7.289853426522832</v>
+        <v>9.387156079696187</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.77335072000155</v>
+        <v>34.8054979936452</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.45281164810372</v>
+        <v>37.74581803003657</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>9.404563979449016</v>
+        <v>9.663517454261253</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.36654707538146</v>
+        <v>38.44750800381512</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>40.5398857819162</v>
+        <v>41.77715650829741</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>23.7896200125153</v>
+        <v>23.899177394774</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>46.51128667385503</v>
+        <v>49.55397409267332</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>51.03894071253323</v>
+        <v>52.5216465323531</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>50.11493021707263</v>
+        <v>51.99894337588767</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>58.71577982979807</v>
+        <v>60.04828911685829</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>61.3026326222125</v>
+        <v>61.90917553415616</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.08005340662363</v>
+        <v>18.12715879594659</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>47.81657783475548</v>
+        <v>48.98810968184786</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>54.93764961028717</v>
+        <v>53.74371489175539</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5.668998438816594</v>
+        <v>9.780907820331176</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.02930562559565</v>
+        <v>38.08333381624883</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.00634750414146</v>
+        <v>44.46584637293208</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1.602666679902526</v>
+        <v>3.555813649483522</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>35.16724916605648</v>
+        <v>35.60577053313381</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>42.88065918531467</v>
+        <v>42.83339307971581</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.10516585340232</v>
+        <v>20.9674774927091</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>45.48055108723986</v>
+        <v>49.53318753944169</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>52.23125000851748</v>
+        <v>55.97507358448084</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>43.96682958294744</v>
+        <v>48.53443288578266</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>55.99343832837982</v>
+        <v>58.23397257917686</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>61.85477425899975</v>
+        <v>62.94127821560664</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>9.803522554449003</v>
+        <v>17.18141100052059</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>56.00498249316527</v>
+        <v>57.68180549331303</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>66.62244821443602</v>
+        <v>63.69509520278827</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>10.61734443746407</v>
+        <v>13.21665695124469</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>47.80555838421438</v>
+        <v>47.17496517849735</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>54.40775357346783</v>
+        <v>53.85393097952817</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4.562290278304687</v>
+        <v>7.48895510252574</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>45.67540770657882</v>
+        <v>45.94369091500229</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>52.9744091184091</v>
+        <v>53.50702014979176</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.53267061073301</v>
+        <v>30.75273758799525</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>62.51445775548106</v>
+        <v>65.0269438570009</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>68.90247042876372</v>
+        <v>71.76804091036959</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.27061047735288</v>
+        <v>73.31474191730152</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>81.01373922944843</v>
+        <v>82.55591121991603</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>89.07502736736139</v>
+        <v>89.85145303092528</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>19.96053408144948</v>
+        <v>29.10195851682471</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>76.55251012051836</v>
+        <v>77.93892928036425</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>86.59954471302247</v>
+        <v>84.49006170578235</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-0.3372304623488489</v>
+        <v>4.044143341267386</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14.39919768035102</v>
+        <v>21.54374048900222</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>21.74677336166972</v>
+        <v>26.13804710504854</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-1.497451778807367</v>
+        <v>1.182790869925846</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>14.79428252098369</v>
+        <v>20.99951379491719</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.91733307221442</v>
+        <v>26.20215363136766</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6.896617606617319</v>
+        <v>10.65963055616312</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>21.15497971737067</v>
+        <v>28.32201815957733</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.26419191492438</v>
+        <v>32.9590634319045</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>30.74983136215438</v>
+        <v>32.0531505387078</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.62447374082467</v>
+        <v>36.70542361039688</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>37.39104475785369</v>
+        <v>41.51458693802048</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-0.6925352167472667</v>
+        <v>9.733350144435569</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>21.73294586571991</v>
+        <v>29.85325050035537</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>32.91427948659275</v>
+        <v>37.01696504023825</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1.187215683119057</v>
+        <v>7.491805977304207</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.13916944847149</v>
+        <v>29.42836323550527</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.07813354729886</v>
+        <v>38.3038820491732</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-5.500170338074803</v>
+        <v>-0.5217687306858743</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18.76862768021917</v>
+        <v>24.31941323733528</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.75656592043207</v>
+        <v>34.37014158617436</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2.961981881082302</v>
+        <v>12.15225283502261</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.20178998070499</v>
+        <v>34.29287548524216</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.81832308863015</v>
+        <v>43.25095904253586</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>27.62295113233355</v>
+        <v>34.33037855035014</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>32.5754126439511</v>
+        <v>41.74376027972075</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.56883613165098</v>
+        <v>49.63899193892836</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.5778491365421417</v>
+        <v>12.37074552318029</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33.9837137816719</v>
+        <v>44.31909591349516</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>49.10854927228597</v>
+        <v>53.21572997502446</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>7.216723200646925</v>
+        <v>12.5197648333923</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.27361180250033</v>
+        <v>39.79369470761172</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.08634330923931</v>
+        <v>48.69600158400296</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.8669051526732545</v>
+        <v>4.970839989100881</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.99050417517314</v>
+        <v>35.85611733750008</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>43.83888703396997</v>
+        <v>45.93718076275302</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>16.52916872518956</v>
+        <v>23.57841636767663</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>44.64341971497264</v>
+        <v>51.10606268090302</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>54.13781535576568</v>
+        <v>60.09118349756884</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>55.94007656155053</v>
+        <v>61.92749931347726</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>61.64755355634935</v>
+        <v>68.27043916270489</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>73.00663958756543</v>
+        <v>78.34614520772013</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>14.30377302838758</v>
+        <v>26.27275797163374</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>58.52172729424477</v>
+        <v>65.89604446215426</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>73.45446558341033</v>
+        <v>75.02632179300869</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3.885316737330001</v>
+        <v>11.00038742212973</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.40155606646326</v>
+        <v>33.75247072774451</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>32.41797454932434</v>
+        <v>38.06277237768803</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5.244746022820607</v>
+        <v>9.682057436487472</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.03184360756741</v>
+        <v>35.44674944781458</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36.78878610082631</v>
+        <v>40.32777915375387</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>16.38156804722007</v>
+        <v>21.48718093881165</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>37.19979676895774</v>
+        <v>44.45091608861978</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>43.98859487393415</v>
+        <v>48.80131443129227</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>44.8890425455057</v>
+        <v>47.6988496121479</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>51.31576525097135</v>
+        <v>54.18396558092563</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>56.060817484311</v>
+        <v>58.38751123044081</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>7.324933510188941</v>
+        <v>18.86312230196719</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>40.06774020451465</v>
+        <v>45.33073536632724</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>50.74512813261086</v>
+        <v>52.21235743786664</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.48699607709657</v>
+        <v>17.0719619007732</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>38.45274187518535</v>
+        <v>44.30356768443126</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>47.74130581525976</v>
+        <v>52.15201541974543</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4.86709520404424</v>
+        <v>10.13612057516674</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>36.88993206574209</v>
+        <v>40.97346969021029</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>47.15882587589424</v>
+        <v>49.86113223746741</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16.36166159815202</v>
+        <v>25.5073780918766</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>44.38772655757052</v>
+        <v>52.99230659359381</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>53.37495920743974</v>
+        <v>60.9137647172295</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>46.24276806877955</v>
+        <v>52.56178448621038</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>56.95526468216788</v>
+        <v>61.74720439775809</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>64.62230751935476</v>
+        <v>68.65396096196436</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>13.40463044419526</v>
+        <v>24.91872614206958</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>57.48388615964593</v>
+        <v>63.30292144766529</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>71.61896101661488</v>
+        <v>71.05138098161653</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>9.756551895454066</v>
+        <v>17.6359815692359</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.2592452655965</v>
+        <v>49.84964848615363</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>54.60996726035195</v>
+        <v>57.73767568669326</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>5.394937101225892</v>
+        <v>11.32846479125915</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>44.64464141984041</v>
+        <v>47.80755092685893</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>54.98225354501724</v>
+        <v>56.74003366564697</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>23.38502654667435</v>
+        <v>32.22322095603894</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>57.73597326705782</v>
+        <v>64.73655634373534</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>66.78334749553302</v>
+        <v>72.69796212159608</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>67.40294483813224</v>
+        <v>75.23241599313923</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>78.36907427562423</v>
+        <v>83.26092341325062</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>88.61577869018846</v>
+        <v>92.34669192170165</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.59048711487382</v>
+        <v>34.49129065485913</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>74.61748543759555</v>
+        <v>80.22704543738999</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>88.84715067059749</v>
+        <v>88.15553369511895</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-3.183705435180407</v>
+        <v>7.114927017783675</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>19.63959429971279</v>
+        <v>33.60386842102371</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.85261888468789</v>
+        <v>36.07255648169482</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.5974269911582724</v>
+        <v>7.444140181900064</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.8295342239518</v>
+        <v>37.44048855111184</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>30.48720815092389</v>
+        <v>40.23605617895807</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>13.48164226229702</v>
+        <v>21.45051374967373</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>35.56452890421922</v>
+        <v>48.18586921633825</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>39.64087831077246</v>
+        <v>50.67752231162937</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.87155090515783</v>
+        <v>48.80207358511102</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>47.2630079453498</v>
+        <v>57.07484970050645</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>49.3829468606517</v>
+        <v>58.92191085937297</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-0.6738463988630272</v>
+        <v>14.56443925644768</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>34.05800798861891</v>
+        <v>45.89408387093311</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>40.46927008114166</v>
+        <v>50.23950630541948</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>7.759195757484292</v>
+        <v>15.03640612195523</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.24742388740593</v>
+        <v>45.40770553318218</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>44.06538293901525</v>
+        <v>50.45657622790845</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5.469804166041399</v>
+        <v>8.803014032494591</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>39.17580857596801</v>
+        <v>43.19578434733289</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>45.60780431591478</v>
+        <v>48.91317719911277</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>19.37348444859265</v>
+        <v>27.01116661089773</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>48.87264072867698</v>
+        <v>57.66499582146605</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>54.50185875220551</v>
+        <v>62.76083376658836</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>48.65204262153568</v>
+        <v>55.33892678757438</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>60.2096382531206</v>
+        <v>65.86873698839186</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>64.7861638242467</v>
+        <v>70.03422605770106</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>12.81612762204264</v>
+        <v>23.64556846507094</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>59.21225404732122</v>
+        <v>65.83880225381316</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>68.06586018489644</v>
+        <v>70.36888679924868</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>10.92716056620212</v>
+        <v>15.42528204597779</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>47.99099888985499</v>
+        <v>50.75129288658059</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.54703616464792</v>
+        <v>55.83316628119893</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>7.27651548754379</v>
+        <v>9.381209583631454</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.25213049088492</v>
+        <v>49.38474583440996</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>54.39456081144726</v>
+        <v>55.13951128134354</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.54557110254756</v>
+        <v>33.08347385933982</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>64.40701750704424</v>
+        <v>68.73810583067618</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>69.78281078596272</v>
+        <v>73.86725348416036</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>71.74596269085838</v>
+        <v>75.89641162145929</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>83.64811844283319</v>
+        <v>85.610242449556</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>90.24219820787899</v>
+        <v>91.72678614916521</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>22.30343849676895</v>
+        <v>32.42074708055733</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>78.70614321747517</v>
+        <v>82.11546403666563</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>87.16116417593845</v>
+        <v>86.74555376261114</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-5.620463851819359</v>
+        <v>-4.394010254562605</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.09551313932544</v>
+        <v>12.84328360134138</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>18.33072991193972</v>
+        <v>16.64640951854362</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-6.077160502223649</v>
+        <v>-4.45051746731404</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>13.50858898916371</v>
+        <v>15.06917052523414</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20.40188049626397</v>
+        <v>19.37586924028466</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>6.38116125335106</v>
+        <v>5.057220374386496</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.52241235161897</v>
+        <v>22.45486460280332</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.5553517940714</v>
+        <v>26.29336919734621</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>30.53518710078053</v>
+        <v>28.02837438378949</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.68744165314185</v>
+        <v>33.32528805699177</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>38.96346758297157</v>
+        <v>36.27416064600373</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-2.404327539161905</v>
+        <v>3.860027427705194</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.55534701868363</v>
+        <v>24.1781270163995</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>34.04392419800094</v>
+        <v>30.11914707060362</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-0.4440500892361001</v>
+        <v>5.415070359133178</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.55241509657135</v>
+        <v>27.6569905179542</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>33.28199335447516</v>
+        <v>36.11567992230184</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-7.052209680616102</v>
+        <v>0.3791830692652773</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>20.58242235489858</v>
+        <v>25.56616111145223</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.23333424139689</v>
+        <v>35.14486757077184</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>5.86650965219826</v>
+        <v>13.86550257625376</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>30.05206185363831</v>
+        <v>36.31432877338133</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>38.49844293527461</v>
+        <v>44.85170535498087</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.61717983033586</v>
+        <v>37.55896471902755</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.86055554081156</v>
+        <v>45.66867142579093</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>46.48710474833783</v>
+        <v>51.77248146938089</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>1.674239434522519</v>
+        <v>13.13926801212722</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.71315576655384</v>
+        <v>45.77010163956612</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>52.99758196432707</v>
+        <v>54.11896757630763</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>8.884659757897325</v>
+        <v>12.58189484443896</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>41.23221968804528</v>
+        <v>40.56699907564757</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>49.58015261567743</v>
+        <v>49.12166067124085</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>3.136477959480018</v>
+        <v>7.852969113037949</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>38.89805101675753</v>
+        <v>39.54358758242666</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>48.12703811544009</v>
+        <v>49.23097393342535</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>23.36095395843505</v>
+        <v>27.58630466303871</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>54.65912325814104</v>
+        <v>55.83174105113027</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>62.73624000623805</v>
+        <v>64.46598260777046</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>62.83093937214265</v>
+        <v>66.17181292010326</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>72.2367775548734</v>
+        <v>73.69938241893462</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>81.76263121065956</v>
+        <v>81.87343627668338</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>19.74835726354816</v>
+        <v>28.98666181752151</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>68.97396242735827</v>
+        <v>69.83272794230029</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>81.67761151610593</v>
+        <v>78.59486696485939</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-3.31982896552536</v>
+        <v>-4.602987111722204</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>17.03146046223759</v>
+        <v>16.18843838650009</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>23.77588785095836</v>
+        <v>20.59461808539057</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-3.079916812467211</v>
+        <v>-7.201871602707033</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>19.41928019813408</v>
+        <v>16.34255143946563</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.87552522286525</v>
+        <v>21.33215442937998</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>7.885345839569631</v>
+        <v>3.496161378934136</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>27.57641692354348</v>
+        <v>24.48099965132104</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>34.10204762636401</v>
+        <v>28.92816795097312</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.34796461595572</v>
+        <v>27.99427166251339</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.51286140782565</v>
+        <v>33.76445160452297</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>45.20212009490869</v>
+        <v>38.24073736947682</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-1.808391006905794</v>
+        <v>0.889758037069651</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.16162775519899</v>
+        <v>25.06520971987914</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>39.4251073007958</v>
+        <v>32.02913575193847</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>2.137079447368478</v>
+        <v>-2.360697438327133</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.03791714215562</v>
+        <v>22.62735052881181</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>39.0684210743228</v>
+        <v>30.8055049178042</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-3.542145501068497</v>
+        <v>-10.79908725104833</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>27.30339115567173</v>
+        <v>17.49763402892011</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>37.28698889260109</v>
+        <v>26.75865976547098</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>7.876654103715971</v>
+        <v>3.314261677233791</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>34.87235775680823</v>
+        <v>28.5347616077408</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.60990215090776</v>
+        <v>36.78899348973754</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>37.02199895679914</v>
+        <v>28.52191845172219</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>46.46655432408977</v>
+        <v>36.86379031891032</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>54.14161437508506</v>
+        <v>44.28319993894885</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>4.635379629041211</v>
+        <v>2.637769347763125</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>47.09408820146029</v>
+        <v>38.42536358533102</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>60.83645461038573</v>
+        <v>46.56309691125737</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>4.217734335660722</v>
+        <v>0.3624501408800427</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>38.88169565812598</v>
+        <v>30.62374479057257</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>47.95312993677896</v>
+        <v>39.04653452855754</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1.510211634625875</v>
+        <v>-7.441033557732759</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.81223951670846</v>
+        <v>26.8271662392021</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>46.84108745426335</v>
+        <v>36.36521954888671</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>16.81670556840416</v>
+        <v>12.3912074548803</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>50.3561296366025</v>
+        <v>42.93400858177192</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.13327655147233</v>
+        <v>51.43515153943227</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>60.38011829755979</v>
+        <v>53.59881703565131</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>70.207545344816</v>
+        <v>60.91720274574857</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>80.46768601003569</v>
+        <v>70.7062032412033</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.72734484192607</v>
+        <v>14.25481032242063</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>66.4779843695547</v>
+        <v>57.77691498650928</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>80.28263742637635</v>
+        <v>66.33956686983996</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>6.158163991037512</v>
+        <v>13.58435606107568</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>33.29588133556138</v>
+        <v>41.47697891616584</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>38.19090275740635</v>
+        <v>44.48246947432925</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10.34548539535234</v>
+        <v>16.80984553320924</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>40.34736076151361</v>
+        <v>48.39573714569998</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>45.75901056052118</v>
+        <v>51.79918541607876</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.52919396027602</v>
+        <v>31.93371886053755</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>52.78653373151235</v>
+        <v>60.0858135621141</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>57.52275524303354</v>
+        <v>63.11926277403248</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>56.187565828068</v>
+        <v>62.93947954951532</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>67.78053960226337</v>
+        <v>71.83282512259176</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>69.79401316433966</v>
+        <v>73.453185691405</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.45948077624654</v>
+        <v>27.12743049072718</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>55.75689430397405</v>
+        <v>60.45386275628764</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>63.2059999645188</v>
+        <v>65.72594959547553</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>3.695107156120734</v>
+        <v>10.13152911885292</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.17439200532102</v>
+        <v>41.38211983412024</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>44.70307601014785</v>
+        <v>47.18702319970126</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-0.2201128714027121</v>
+        <v>5.163743253402867</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>37.89817075679942</v>
+        <v>40.55223204080657</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>45.11590249639549</v>
+        <v>47.12576402733913</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>16.52427920342232</v>
+        <v>23.58483076099375</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>49.88501790747499</v>
+        <v>55.12613090573279</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>56.20190418045564</v>
+        <v>60.98503453521102</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>47.73306868663207</v>
+        <v>53.94980301824383</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>63.28457799327555</v>
+        <v>64.75336035979606</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>67.80426165964661</v>
+        <v>68.84448047240778</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>10.78035815461621</v>
+        <v>20.84494057196908</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>63.24996222932229</v>
+        <v>64.4629462400012</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>73.18512957285206</v>
+        <v>70.00078974279992</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>4.534150972907383</v>
+        <v>11.25851723204714</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>45.458680060454</v>
+        <v>47.70854122500598</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>51.67590761136593</v>
+        <v>53.54678543864799</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.1733273043795265</v>
+        <v>7.07142937832451</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.41709653949988</v>
+        <v>48.3478096275249</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>52.29050021371262</v>
+        <v>54.95909713165641</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>23.48636866382651</v>
+        <v>30.90510379263691</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>63.08326075272041</v>
+        <v>67.69420507778983</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>69.09879456371709</v>
+        <v>73.58675970943099</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>68.16955497411354</v>
+        <v>75.52498142979874</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>84.15332716592697</v>
+        <v>85.68136780183463</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>90.54264591222137</v>
+        <v>91.75555679697354</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>17.93957800519783</v>
+        <v>30.40357940552704</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>80.21737313809075</v>
+        <v>81.81053034705053</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>89.67857482673101</v>
+        <v>87.51330468928992</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-6.580242061071985</v>
+        <v>-4.520334021915126</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.442674209691738</v>
+        <v>11.92592041835984</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>15.46645851914236</v>
+        <v>16.6902740272022</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-10.90675784245956</v>
+        <v>-6.323561288461526</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>5.701700999883265</v>
+        <v>12.30034557324751</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>13.46678672082551</v>
+        <v>17.69554836483544</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>0.5727916525196122</v>
+        <v>3.082757119509125</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>15.10834789951321</v>
+        <v>19.68200326764683</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>21.90427287550844</v>
+        <v>24.49067739932523</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>20.42289622358307</v>
+        <v>23.59498115954948</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>22.93184499044274</v>
+        <v>28.97114916958751</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.92902980613364</v>
+        <v>32.58367288104016</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-8.375260494257034</v>
+        <v>-0.652924853189667</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>14.48619014840521</v>
+        <v>19.51629438668265</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.17478718383954</v>
+        <v>26.13305674391711</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-6.455547142927408</v>
+        <v>-0.1206813708464907</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>14.77882113495864</v>
+        <v>19.98551047846545</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.41242927335323</v>
+        <v>30.14378345761373</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-14.61313000668139</v>
+        <v>-6.223263784141398</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>8.86234740597186</v>
+        <v>16.54519366038448</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>20.6182435268796</v>
+        <v>28.04852595568043</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-3.367069243470382</v>
+        <v>6.332485504572034</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>17.17843263575745</v>
+        <v>26.62571572428289</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.46707476210815</v>
+        <v>36.87848630090383</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>16.74780655697515</v>
+        <v>26.86718691642901</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.4564300582048</v>
+        <v>34.64645299914338</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>33.11198298719444</v>
+        <v>41.91045913629735</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-9.178273962682908</v>
+        <v>3.021614504053375</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>23.13558930883919</v>
+        <v>33.51584991695584</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>39.31751452413282</v>
+        <v>43.8494032162852</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1.59000615773823</v>
+        <v>6.133414286055064</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.08552759808502</v>
+        <v>31.68926603664376</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>40.71509607170876</v>
+        <v>42.53579335303404</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-7.180177034844135</v>
+        <v>-0.1398498372531272</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.32280723952962</v>
+        <v>28.79985825877807</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.07423734300741</v>
+        <v>41.08257681010682</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>11.55022832272283</v>
+        <v>18.3518097038762</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>39.1213235227543</v>
+        <v>44.14539542723371</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>49.40605703555258</v>
+        <v>55.09282284489242</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>46.11979553149415</v>
+        <v>53.8602859181552</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>53.17043084241224</v>
+        <v>61.2292221559105</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>66.70724220291736</v>
+        <v>71.40509779767027</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.053230413033219</v>
+        <v>17.6031851660894</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>49.41691195153797</v>
+        <v>55.90238210646057</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>65.59268971884379</v>
+        <v>67.45152377736011</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-0.114384552430451</v>
+        <v>4.908171866740144</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.35161755300878</v>
+        <v>28.40427904275439</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>23.41895710042466</v>
+        <v>30.90249690033116</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>1.375113056250967</v>
+        <v>2.867234313412094</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.89558810692326</v>
+        <v>29.47446657093995</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.39220116483374</v>
+        <v>32.30347404304936</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>12.94038708841769</v>
+        <v>15.8714163555697</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.77489055020833</v>
+        <v>39.5860966771014</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.71028110297051</v>
+        <v>42.10755427099738</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>35.88107239793887</v>
+        <v>40.42734135217025</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>41.08519051357341</v>
+        <v>47.74310394129252</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>43.74478520211501</v>
+        <v>49.73733346112331</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>0.2971353085038118</v>
+        <v>8.742659514140421</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.91994877045322</v>
+        <v>37.14602392275414</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>36.10951147812492</v>
+        <v>41.09390955792314</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>7.059408320316749</v>
+        <v>13.35043405346195</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.333988900786</v>
+        <v>39.94131268888665</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.70656865566741</v>
+        <v>45.73014855499896</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>4.140685414303462</v>
+        <v>6.283061007951762</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.18832718412037</v>
+        <v>36.39484414225873</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>40.23347918196717</v>
+        <v>42.95018112793521</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>16.0508719291872</v>
+        <v>22.96500291436802</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>41.47307604789748</v>
+        <v>49.80324388696469</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>47.63892226550846</v>
+        <v>55.64593054864327</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>41.34001494584511</v>
+        <v>48.09023963581808</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>49.92227262818797</v>
+        <v>57.20927533055161</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>55.83595819418674</v>
+        <v>61.92339782658058</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>9.336905260146835</v>
+        <v>18.72545762502497</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>49.32082158311454</v>
+        <v>56.81029596696496</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>59.01843387800258</v>
+        <v>62.05899767666644</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>13.94953478738384</v>
+        <v>16.50836553800776</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>46.98364238552061</v>
+        <v>48.50422909565079</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>53.01547008769413</v>
+        <v>54.61599511491961</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>8.290446600827906</v>
+        <v>9.495444990179273</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>44.81102666325054</v>
+        <v>45.72788837243952</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>51.47946309264172</v>
+        <v>52.64891476886162</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.08400871234983</v>
+        <v>31.98794885408754</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>60.04645331416229</v>
+        <v>64.28145476112134</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>65.88260185262033</v>
+        <v>70.45007564207066</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>67.17352384218282</v>
+        <v>71.96537806125386</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>76.43519902358422</v>
+        <v>80.55065684539871</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>84.62486621028189</v>
+        <v>87.84323229886724</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>21.11613262502186</v>
+        <v>30.12278904453836</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>71.38650668338585</v>
+        <v>76.20664754707448</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>80.56557210670567</v>
+        <v>81.98482968099978</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-0.1298481757621914</v>
+        <v>0.7195356548613709</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.82202498920785</v>
+        <v>17.14858141099548</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.61984173158797</v>
+        <v>20.42016498313436</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1.271827488998255</v>
+        <v>-1.767867060751342</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>14.15254864794341</v>
+        <v>16.83655251089944</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.45673463039459</v>
+        <v>20.54132723386623</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>9.152545804527975</v>
+        <v>8.343335674736808</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.65180476898387</v>
+        <v>24.92521305450695</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.29397502839011</v>
+        <v>28.22723061755446</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.34328686575044</v>
+        <v>27.10418145188397</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.6203052647827</v>
+        <v>32.0952404484481</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>33.29954435996224</v>
+        <v>34.58153711040067</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-0.3045631866666554</v>
+        <v>3.395713627345685</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.92700423905329</v>
+        <v>23.09975386912031</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.22818655756164</v>
+        <v>27.9281519912761</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-7.167008375684951</v>
+        <v>-2.438687889532549</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.04406358052253</v>
+        <v>16.68210198696659</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>20.44688377267376</v>
+        <v>24.33548139303255</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-13.6587532608139</v>
+        <v>-10.37057270392977</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>8.685427502396323</v>
+        <v>11.28200546062417</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>16.86955315833971</v>
+        <v>19.9487706352443</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-3.499999921807678</v>
+        <v>2.590641860629219</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>16.05540250049603</v>
+        <v>21.88930338015291</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>23.21806701583823</v>
+        <v>29.61387854635646</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16.44971026680625</v>
+        <v>21.3520140291434</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.70407576289278</v>
+        <v>28.04757458295866</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>27.91899786963731</v>
+        <v>33.81521505544001</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-8.947197795233862</v>
+        <v>-0.800947858787854</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>21.80944196992699</v>
+        <v>28.05729055055161</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.07484513062022</v>
+        <v>35.38546397720025</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>5.080817049220229</v>
+        <v>6.428717426681573</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.55939493076315</v>
+        <v>31.54093017701058</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.34556980166082</v>
+        <v>39.32694367976966</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-3.310134490567933</v>
+        <v>-1.495440020948624</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.06857637798807</v>
+        <v>26.94188673037719</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.57097498083031</v>
+        <v>35.75884811364953</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>14.93126913266438</v>
+        <v>17.71812466733206</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.51841154801581</v>
+        <v>43.06394442714128</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>48.08443539850695</v>
+        <v>50.9223875221539</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.92705845817325</v>
+        <v>51.31186470182137</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>54.52343058712862</v>
+        <v>57.6840559206795</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>63.55565050183294</v>
+        <v>65.87091036202551</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.201818735519367</v>
+        <v>16.01624564289403</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>51.01794422320827</v>
+        <v>53.43142549576403</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>61.34495391076538</v>
+        <v>61.19717977546639</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-8.381208541694001</v>
+        <v>-6.949679947081677</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>0.4649245682225569</v>
+        <v>6.274555238472971</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.664132853395209</v>
+        <v>8.997492150981781</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-10.5202236892211</v>
+        <v>-11.82710610578005</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-0.7404555655022094</v>
+        <v>3.148153173317922</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>3.901943867310678</v>
+        <v>6.231634803316467</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-3.367831581420482</v>
+        <v>-3.451098549013377</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.191323183887874</v>
+        <v>9.896155426844613</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>9.2543045066706</v>
+        <v>12.64442253050109</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.62371634918295</v>
+        <v>10.88607654560584</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>8.667826580939135</v>
+        <v>14.52936779003554</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>12.54452753296187</v>
+        <v>17.26296219709609</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-13.50145809040654</v>
+        <v>-8.916907609461546</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-0.03966200329429626</v>
+        <v>6.79845283163657</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>6.3505748334983</v>
+        <v>10.82896845210415</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-7.242111437222718</v>
+        <v>-7.049501010928331</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7.724475132978611</v>
+        <v>8.742694051421845</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>14.57144517545224</v>
+        <v>15.66419714200823</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-12.86316180741491</v>
+        <v>-16.28186683087263</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>3.683022207837354</v>
+        <v>1.601376496734431</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.25263240172617</v>
+        <v>9.439357440675879</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-5.792655402672167</v>
+        <v>-5.031520965961899</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>8.688398541564567</v>
+        <v>10.90758139994865</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>15.31324530100859</v>
+        <v>17.89347195229062</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>10.68121028342892</v>
+        <v>9.983582743470926</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>10.6038519342768</v>
+        <v>15.29347605654287</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>18.02566535666677</v>
+        <v>21.1954826025783</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-11.55462287819651</v>
+        <v>-8.455764723120669</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>11.2211068134809</v>
+        <v>15.98493814254898</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.64063287995656</v>
+        <v>22.51157912478457</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>7.780890833282193</v>
+        <v>2.482098881180494</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.99679351521107</v>
+        <v>24.08756750754266</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.23360623257112</v>
+        <v>31.27211603291015</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-0.4807888775367815</v>
+        <v>-6.991300887131125</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>24.0798156474612</v>
+        <v>17.47495292538051</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.97487153787191</v>
+        <v>25.61080921203754</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>15.15805168757473</v>
+        <v>10.43526627236377</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.6532459089007</v>
+        <v>32.24172033016977</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>42.68772952188576</v>
+        <v>39.49310330426237</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>45.62147923971798</v>
+        <v>40.03070288025201</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>46.92043809309686</v>
+        <v>45.0123982924534</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>56.19189030761629</v>
+        <v>53.35298619649679</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>9.129072917929321</v>
+        <v>8.72318202495007</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>42.93660758635818</v>
+        <v>41.44893875526077</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>52.42761342941778</v>
+        <v>48.52774462226311</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-4.726692093313218</v>
+        <v>7.687128434577845</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>12.67588317350135</v>
+        <v>26.47544708601014</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>20.58782376611501</v>
+        <v>31.40193970959657</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-6.933491698509435</v>
+        <v>5.090236163667733</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>12.3057791501549</v>
+        <v>26.36632050998857</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.05275858657485</v>
+        <v>31.94513118142396</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>3.785881217710177</v>
+        <v>16.05444720943581</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>20.6238976903068</v>
+        <v>35.01754468171116</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.27916617705914</v>
+        <v>39.98986613051591</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.95761246023027</v>
+        <v>39.85912169570517</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.25235482379236</v>
+        <v>45.12441700753035</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>39.18643092910433</v>
+        <v>49.53787209836327</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-2.807484759098628</v>
+        <v>15.45272875350271</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>23.67526388618103</v>
+        <v>37.31736765322088</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.7154321255227</v>
+        <v>44.87502749961767</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-2.599066750450106</v>
+        <v>6.429657273005162</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.13110013022516</v>
+        <v>29.61846938384198</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.84262819491684</v>
+        <v>38.91321281776544</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-10.77173356623195</v>
+        <v>-2.08100726626855</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.56849461577873</v>
+        <v>24.17824091417341</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.4105344564319</v>
+        <v>34.70370351390981</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>0.07839856908027087</v>
+        <v>11.91932264519928</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>24.00629147699617</v>
+        <v>35.32384928125167</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.37032572105402</v>
+        <v>44.7050573066878</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.60956606950876</v>
+        <v>36.065012766893</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>34.14065567317914</v>
+        <v>44.08901313930684</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>43.57664769168554</v>
+        <v>51.57110348837656</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-1.797392515317142</v>
+        <v>12.24808513348415</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>35.8362785601023</v>
+        <v>45.98137185555047</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>52.13678012350626</v>
+        <v>55.33265902556001</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>3.038495944183794</v>
+        <v>11.91523207943872</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.97951266657742</v>
+        <v>40.62585896950184</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>45.66284865194928</v>
+        <v>50.00402480157983</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-3.900463415938702</v>
+        <v>4.092881765043529</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.4116592142925</v>
+        <v>36.60508951931067</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>43.222531538547</v>
+        <v>47.22502049657712</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>13.82336546460456</v>
+        <v>24.11120313149927</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>44.72818026797026</v>
+        <v>53.08891137176634</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>55.06493701494239</v>
+        <v>62.55431783437733</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>55.23302718467303</v>
+        <v>64.5131317646719</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>63.6192046113396</v>
+        <v>71.56322826077434</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>75.57200572156287</v>
+        <v>81.30651073423203</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>12.25216800412805</v>
+        <v>26.79382765930713</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>60.85910717056466</v>
+        <v>68.44670928051116</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>77.11670682209881</v>
+        <v>78.15120360219515</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.2409774288239</v>
+        <v>13.29647825434653</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.30365379036537</v>
+        <v>34.98920863278679</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.40109951436557</v>
+        <v>38.96433735291056</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>11.9568918255273</v>
+        <v>12.8975287391632</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>34.13701508603845</v>
+        <v>37.46259865288647</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>40.87799496806726</v>
+        <v>41.96407510247715</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.24472899389428</v>
+        <v>25.6794743423725</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>44.65654993879045</v>
+        <v>47.5740019069674</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>50.55618777787711</v>
+        <v>51.58610936496024</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>49.44057489103039</v>
+        <v>50.0071357901957</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>55.70907131700854</v>
+        <v>56.99285252192696</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>60.53326571121613</v>
+        <v>59.78486213060253</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.86655537652896</v>
+        <v>20.27383116117881</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>46.39737090741336</v>
+        <v>46.87073129379107</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>55.6762919872789</v>
+        <v>52.60395911443519</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>5.720729712485053</v>
+        <v>9.388244468521037</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.02215624203454</v>
+        <v>33.57878100948066</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>41.14137451237224</v>
+        <v>41.85395833082376</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>0.5045128920024098</v>
+        <v>3.32194236257795</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.581833975208</v>
+        <v>30.71555354071397</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>39.66350910323948</v>
+        <v>40.08644903892443</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>13.37823590335414</v>
+        <v>18.74032327765028</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.82641505885124</v>
+        <v>43.15589291128032</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>47.64979579985548</v>
+        <v>51.50805028396923</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.39538946913041</v>
+        <v>42.47015993235149</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.69535453541255</v>
+        <v>51.1364288081049</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>56.56589368670038</v>
+        <v>57.14726728659995</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>8.084966598886552</v>
+        <v>14.80366311823535</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>48.10973633067185</v>
+        <v>50.26991713969004</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>61.98710571951408</v>
+        <v>58.52340332133127</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>8.850573096958684</v>
+        <v>11.88395718276755</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.97084223210956</v>
+        <v>41.42416444392865</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>50.85557151992289</v>
+        <v>50.19546612691719</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1.452871240454215</v>
+        <v>5.984498769543023</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.06870646607578</v>
+        <v>39.43613182710536</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>47.8911442699323</v>
+        <v>49.36884363046239</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>21.67312330077421</v>
+        <v>26.96570956948824</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>53.71893426400921</v>
+        <v>56.7807153737416</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>62.31543310449585</v>
+        <v>65.63361231779854</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>60.43854204972632</v>
+        <v>65.43422122429826</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>70.65614826561666</v>
+        <v>73.73440799375396</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>82.09446419361316</v>
+        <v>82.6189760671744</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>16.18508089426687</v>
+        <v>25.36554110096296</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>66.58657315168584</v>
+        <v>68.64526508702214</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>80.10710381470027</v>
+        <v>77.78056522920193</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>8.851180228131312</v>
+        <v>11.00561523838959</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.06869089402531</v>
+        <v>35.9714397369173</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>40.30720231771453</v>
+        <v>40.66389443993972</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>10.66269706948616</v>
+        <v>11.3360050059231</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.43616248120975</v>
+        <v>39.6075602025705</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>45.4386379589064</v>
+        <v>44.92134393729444</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>23.82912595731365</v>
+        <v>24.43706823461364</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>47.26099378521747</v>
+        <v>49.63513796211495</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>54.26467989032099</v>
+        <v>54.37124434653993</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>54.33849356657285</v>
+        <v>53.53289803878967</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>63.08117702785358</v>
+        <v>60.92327513513121</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>67.62567449159434</v>
+        <v>64.86849070235371</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>15.16902224147629</v>
+        <v>22.28075484808052</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>52.02254753561282</v>
+        <v>51.6806919024794</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>63.03791024259404</v>
+        <v>59.18844139517197</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>8.350369539395743</v>
+        <v>10.28141752413815</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.02231948357267</v>
+        <v>39.44389134778423</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>49.53091219708175</v>
+        <v>47.7502333303641</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>3.04031315556562</v>
+        <v>3.678277381662149</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>38.05497127015245</v>
+        <v>36.70216122834152</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>48.56711604182389</v>
+        <v>46.10834790791976</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>16.40286167567954</v>
+        <v>19.93000948696077</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>47.04733852480403</v>
+        <v>49.36376797861515</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>56.24746197126559</v>
+        <v>57.74737992261039</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.78282838411644</v>
+        <v>49.00181839010035</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>60.78099052578007</v>
+        <v>59.01113605579621</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>68.2871882644952</v>
+        <v>65.75926936523923</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>13.46392208587778</v>
+        <v>19.29336460429791</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>61.66140301138567</v>
+        <v>60.41822415810188</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>76.13131145545159</v>
+        <v>68.78658754729074</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>7.726712443553012</v>
+        <v>11.98256030034162</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>46.00283350880906</v>
+        <v>46.27616220017941</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>55.5203073465935</v>
+        <v>54.60126621551703</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.989262985796373</v>
+        <v>6.319076234554565</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>45.30510698701868</v>
+        <v>45.153502033723</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>55.82707021100504</v>
+        <v>54.580935031233</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>22.65682455400766</v>
+        <v>28.12334227401432</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>59.69122590679795</v>
+        <v>62.7359612936762</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>68.89994236403346</v>
+        <v>71.13850980472444</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>68.20883116072791</v>
+        <v>73.21512390509</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>81.51781996474114</v>
+        <v>82.13779438589037</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>91.52899682594351</v>
+        <v>91.0507425861357</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>19.83854634670031</v>
+        <v>30.15012929675169</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>78.08606878204387</v>
+        <v>78.8470000723664</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>92.56949227077398</v>
+        <v>87.39379947722085</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>13.45067955638062</v>
+        <v>13.45404184797527</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.90064958915642</v>
+        <v>34.05181486572857</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>39.16973671969986</v>
+        <v>38.7152932824624</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.00782647269437</v>
+        <v>14.00912230388229</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>36.40503580336556</v>
+        <v>37.33425129506576</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>44.44131399684581</v>
+        <v>42.61522198661378</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.31562683805051</v>
+        <v>24.21336641776738</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>43.16705943164671</v>
+        <v>45.00275075246843</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>50.2003293338322</v>
+        <v>49.70961129795131</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>51.61752021438345</v>
+        <v>48.75852632776299</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>55.97544849217756</v>
+        <v>54.28111041418261</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>61.14785357194806</v>
+        <v>58.7455504850808</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>17.27666292769571</v>
+        <v>22.52808457991881</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>45.35330741275449</v>
+        <v>46.34025774358273</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>56.41519936881464</v>
+        <v>53.73136841880008</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>13.48503717184994</v>
+        <v>15.03286157314656</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>39.05238073297613</v>
+        <v>39.9216356630531</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>48.71456699791597</v>
+        <v>48.32023516936688</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>10.0210635979309</v>
+        <v>10.09903955657278</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>38.28682542405161</v>
+        <v>38.28334208185559</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>48.96877425583482</v>
+        <v>47.7940021256003</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>19.25641848867784</v>
+        <v>23.23184188142451</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>43.99432913937002</v>
+        <v>48.35214443688342</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>53.34306339253145</v>
+        <v>56.82887213261656</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>46.10488076541337</v>
+        <v>48.22403982173158</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>54.54256281329909</v>
+        <v>56.31856062025363</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>62.69287661175552</v>
+        <v>63.49780405946938</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>16.324929311917</v>
+        <v>22.79038343196189</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>55.23259226843319</v>
+        <v>58.15322225858766</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>69.93623505089366</v>
+        <v>66.58058365044525</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>13.52750951474113</v>
+        <v>16.61176151478652</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>45.72050842912066</v>
+        <v>46.38024137041345</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>55.27677394786659</v>
+        <v>54.75285927575802</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>10.66181300738316</v>
+        <v>12.32422910918952</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>46.25251243246882</v>
+        <v>46.03436038918048</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>56.81736147335656</v>
+        <v>55.51559860205575</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>26.3933480078728</v>
+        <v>30.94587801334924</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>57.5419704221658</v>
+        <v>60.99127992379063</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>66.78822011531425</v>
+        <v>69.44178432403811</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>67.5673685739489</v>
+        <v>71.77454665263883</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>76.38489467555617</v>
+        <v>78.68080910054744</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>86.87707108542948</v>
+        <v>87.96011893246606</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>23.82114430192962</v>
+        <v>33.19517699761217</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>72.81154286738226</v>
+        <v>75.67773643699806</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>87.35399844307331</v>
+        <v>84.27145293380903</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>4.44946427749629</v>
+        <v>8.418745597018432</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.53549522478913</v>
+        <v>33.24424228374374</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.3040917759371</v>
+        <v>37.46783384320606</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>3.027297243675172</v>
+        <v>8.192733712739692</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.54986476058015</v>
+        <v>36.30538025899354</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.03282979972097</v>
+        <v>41.08821857096136</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>17.51274300030925</v>
+        <v>22.10845116571167</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>39.84983756347044</v>
+        <v>47.16488767830666</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>46.39885335435177</v>
+        <v>51.42776930763451</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>45.63982599607702</v>
+        <v>50.31394724896346</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>53.70368098891166</v>
+        <v>58.16589115094992</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>58.53881630858525</v>
+        <v>61.13948862933337</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>8.717325781542087</v>
+        <v>16.50926319335606</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>43.84899712445427</v>
+        <v>46.79943666830861</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>54.14925662035525</v>
+        <v>53.1972335671179</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>0.8286184021880345</v>
+        <v>5.041428858658669</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.75577343738048</v>
+        <v>33.0464710565345</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>40.57515027964696</v>
+        <v>41.18800222359344</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-6.205130536554435</v>
+        <v>-1.67023503416922</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.88058422827685</v>
+        <v>30.04296139274727</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>37.73631378190315</v>
+        <v>39.26251461793064</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>8.104506518159624</v>
+        <v>14.90536098724555</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>37.06079153540244</v>
+        <v>43.17092081545761</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>46.5616169296685</v>
+        <v>51.38818878705322</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>37.14678779318794</v>
+        <v>42.23179883942746</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>48.76765375618444</v>
+        <v>52.05687000942452</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>57.62989454420281</v>
+        <v>57.9995245377423</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>4.06922770702721</v>
+        <v>10.66661226835243</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>49.61152890746473</v>
+        <v>51.0127156330971</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>64.55437988094899</v>
+        <v>59.16825261957806</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>2.532741398152695</v>
+        <v>6.540662582046846</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.44159382437385</v>
+        <v>39.89693232831345</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>49.31101862812309</v>
+        <v>48.66101079452834</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-5.601115164416996</v>
+        <v>0.3060329271628781</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.20315648236205</v>
+        <v>38.07901420168254</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.11421613924398</v>
+        <v>48.00354636043439</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>15.7660767178745</v>
+        <v>22.5199195899618</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>51.47756513890799</v>
+        <v>56.18648689942296</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>61.02681488341348</v>
+        <v>65.03209343254693</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>59.13872911080445</v>
+        <v>65.50824534779993</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>71.52406618644279</v>
+        <v>74.70887668311383</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>83.38059335541227</v>
+        <v>83.63909963451539</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>11.59884050974337</v>
+        <v>21.05746180593862</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>67.76569205913921</v>
+        <v>69.29529372208725</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>82.78470461007943</v>
+        <v>78.46088656209866</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-1.512894621406879</v>
+        <v>-0.6451329073164338</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>14.50831295587025</v>
+        <v>16.20239776831324</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>22.03020189674639</v>
+        <v>20.81245172636287</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-4.56635302059977</v>
+        <v>-1.684543345648386</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>13.14575838680936</v>
+        <v>17.39377283218757</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.46151949733392</v>
+        <v>22.61424511990271</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>6.744621624395471</v>
+        <v>7.68785611747812</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.24608350350535</v>
+        <v>24.69211138354231</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.52395404562385</v>
+        <v>29.34505048793022</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.76851360220954</v>
+        <v>28.32147228045661</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.20896521234054</v>
+        <v>33.04346917266767</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.45610647941999</v>
+        <v>37.3765132111996</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-3.549228986039999</v>
+        <v>5.052777936839274</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>20.83139323552858</v>
+        <v>24.67200557472009</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>32.27799186271217</v>
+        <v>31.75747171868691</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>2.863268279242085</v>
+        <v>5.358893056270219</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.06583212370117</v>
+        <v>27.43082849915245</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.74655271669134</v>
+        <v>37.08426011443248</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-5.446897276224121</v>
+        <v>-0.1022768556029625</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>20.20450220588832</v>
+        <v>24.89220875439885</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>32.01248310507394</v>
+        <v>35.82385352200957</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>6.231381777378125</v>
+        <v>12.45290619691665</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.68122878157793</v>
+        <v>34.73016639088549</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.01545498238524</v>
+        <v>44.47339930377528</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.87028392505594</v>
+        <v>34.58077099108752</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.39212394652239</v>
+        <v>42.52243265174346</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>45.44707940250795</v>
+        <v>50.26607898710829</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>0.1876495271872898</v>
+        <v>10.72767298650975</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>35.49665734914656</v>
+        <v>42.98742913605312</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>51.75027697025085</v>
+        <v>52.94657906091702</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>5.332680237985002</v>
+        <v>10.89074723633598</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.67755047137678</v>
+        <v>38.08815359218127</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>46.66370440536046</v>
+        <v>47.98288206599077</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-2.107926260249002</v>
+        <v>5.113955700846365</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.43959003181837</v>
+        <v>35.91257703379393</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.58524019452273</v>
+        <v>47.11746883376637</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>16.03175315656958</v>
+        <v>23.53058144984085</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>45.39220222887533</v>
+        <v>50.98099238268319</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>56.02195317520219</v>
+        <v>60.96776682437826</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>52.97082319368285</v>
+        <v>60.59545913252702</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>60.45569774658271</v>
+        <v>67.47600137488428</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>73.41244852043248</v>
+        <v>77.48682911348581</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>10.30226521095916</v>
+        <v>23.99346631043972</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>56.48023362904482</v>
+        <v>63.55151918035159</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>73.19865310152689</v>
+        <v>74.15842687625954</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>5.897885825876436</v>
+        <v>7.887658149759169</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>23.51607044852177</v>
+        <v>27.22093194865554</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>31.38725363366869</v>
+        <v>32.28258009053756</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>7.242587390324566</v>
+        <v>7.766182770200663</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.72022335051899</v>
+        <v>29.65937990333097</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>35.42214377760827</v>
+        <v>35.39124206705272</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>16.31031134391785</v>
+        <v>17.32716167712448</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>33.35694256631257</v>
+        <v>36.84028375623738</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>40.9727758609896</v>
+        <v>41.94901801104835</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>41.86926869714709</v>
+        <v>41.13528699819936</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.73896812025492</v>
+        <v>46.36546154309389</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>51.61586152065733</v>
+        <v>51.12471264082177</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>8.773908120019961</v>
+        <v>16.44704396305247</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>35.58476500724423</v>
+        <v>38.82637750068944</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>47.56290977243286</v>
+        <v>46.6551115987964</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>5.008756516307628</v>
+        <v>8.850418316044587</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.6710550945525</v>
+        <v>32.60814521635285</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>40.13180121651058</v>
+        <v>41.79157950828997</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>0.374878356307093</v>
+        <v>3.452418936181036</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>27.64007530690834</v>
+        <v>30.35591204727569</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>39.20486527812713</v>
+        <v>40.75532703533618</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>9.317273717729428</v>
+        <v>15.88033826957785</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>33.17950004605679</v>
+        <v>39.85907203966629</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>43.3008879910338</v>
+        <v>49.12793546694027</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.09819683447957</v>
+        <v>40.16062411059183</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>43.04119177135313</v>
+        <v>48.08592165099404</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>52.10230619927385</v>
+        <v>55.75713978395382</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>6.438338714193051</v>
+        <v>15.89762417938814</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.96872971945683</v>
+        <v>49.98268251264992</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>59.88759838931144</v>
+        <v>59.3217333999148</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>5.235719900804028</v>
+        <v>11.4559427439323</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.57489762833511</v>
+        <v>40.13575362835767</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>46.95378760533995</v>
+        <v>49.28111622809674</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1.449963023001544</v>
+        <v>6.698700173434069</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>36.09672760983592</v>
+        <v>39.17601156750535</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>47.57102220787719</v>
+        <v>49.53231378164302</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>16.84245690795419</v>
+        <v>24.68087514638658</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.16495703926925</v>
+        <v>53.627480714327</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.20714434320971</v>
+        <v>62.85791828650106</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>56.98153633934739</v>
+        <v>64.76468635235608</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>65.38860461557319</v>
+        <v>71.50984131403115</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>76.80693892773964</v>
+        <v>81.25987742110794</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>14.37031046800908</v>
+        <v>27.31339823994422</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>62.06138801158825</v>
+        <v>68.52642218684605</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>77.85569030673392</v>
+        <v>78.04489971683012</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>12.52089144490518</v>
+        <v>13.54935560840123</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.27758684635008</v>
+        <v>35.67156733020821</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>37.67233980069402</v>
+        <v>39.1054495750206</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>16.46049975100355</v>
+        <v>16.45960418846173</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>37.19680673553707</v>
+        <v>41.51102317131392</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>44.2664721277266</v>
+        <v>45.39958657240322</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>27.25328655565524</v>
+        <v>28.62567349101097</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>45.40149400764186</v>
+        <v>50.95367766029307</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>51.58879410158779</v>
+        <v>54.41950368361992</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>52.48829863268502</v>
+        <v>55.02443658465148</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>57.34932175337902</v>
+        <v>61.18123360462118</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>61.58667202195237</v>
+        <v>63.89994176193576</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.6143785680198</v>
+        <v>25.56779720145023</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>46.1577890757538</v>
+        <v>51.34647251597073</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>55.88914392076707</v>
+        <v>57.29530923268718</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>10.12266454170291</v>
+        <v>12.26228167938113</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.06533673021093</v>
+        <v>38.25683491556531</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>44.80651937551816</v>
+        <v>45.01516961736539</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>7.404281354173918</v>
+        <v>8.146396314336636</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>36.0849845903364</v>
+        <v>37.5828944629267</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>45.74872560981464</v>
+        <v>45.23610185331894</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>18.1707242252197</v>
+        <v>23.4621823123403</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>43.27178742740148</v>
+        <v>49.69855055322512</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>51.72939643726804</v>
+        <v>56.51975483861943</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>43.77832935322724</v>
+        <v>49.70229773160737</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>52.6587149510368</v>
+        <v>57.82644640378668</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>59.97279071275815</v>
+        <v>62.99404004024664</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>13.41026018703212</v>
+        <v>21.39391305406571</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>52.88908767212058</v>
+        <v>58.0533127618351</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>66.19117309964591</v>
+        <v>64.59413335044005</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>11.28958035877777</v>
+        <v>13.23711138506691</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>44.24146861599387</v>
+        <v>44.37025404018305</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>52.621156009884</v>
+        <v>51.28142942773668</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>9.250819244082606</v>
+        <v>9.479369085717479</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>45.68050240506842</v>
+        <v>44.73485848768446</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>54.94459538706037</v>
+        <v>52.5611442350063</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>26.96863679949973</v>
+        <v>30.43555559489713</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>58.85152934678146</v>
+        <v>61.85831511586461</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>66.95937041111713</v>
+        <v>68.83378189145097</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>67.44255249681483</v>
+        <v>71.57847402084684</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>76.99135066909105</v>
+        <v>78.82397584010738</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>86.29810694624469</v>
+        <v>86.17225343912783</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>23.01005405377748</v>
+        <v>30.56033553042407</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>73.15530903607683</v>
+        <v>74.71671416069981</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>85.90728117674549</v>
+        <v>81.73786542800326</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>5.947006157177512</v>
+        <v>8.214813555926606</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.38359711811552</v>
+        <v>33.56787350416121</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>37.18916860072106</v>
+        <v>37.72255287469041</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>6.311350324107941</v>
+        <v>8.67916680384001</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>33.32701811504486</v>
+        <v>37.38923138723371</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>40.85086047896617</v>
+        <v>42.09403283111195</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>20.39976101460904</v>
+        <v>22.49681275938208</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>44.04360193041479</v>
+        <v>48.08572020439111</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>50.62839314508248</v>
+        <v>52.27904858736414</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>48.37038549194757</v>
+        <v>51.18038756046194</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>57.60504028460281</v>
+        <v>58.93928393243105</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>61.99718796343261</v>
+        <v>61.95302821057506</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>9.681761895830263</v>
+        <v>16.78605272415942</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>46.8686774093856</v>
+        <v>47.62683529738636</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>57.22520431405601</v>
+        <v>54.03642895011109</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-0.3483152328922614</v>
+        <v>5.165319237282862</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.89785251234269</v>
+        <v>33.76603158163657</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>40.73717402121349</v>
+        <v>41.82345784877879</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-6.070363619981904</v>
+        <v>-1.25867617559997</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.47357456252561</v>
+        <v>31.12906322209155</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>39.35135377472434</v>
+        <v>40.25337519776313</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>7.87182376492899</v>
+        <v>15.27460250628527</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>38.10433126068499</v>
+        <v>44.14137371793763</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>47.62445429451169</v>
+        <v>52.2737544016056</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.6932768491278</v>
+        <v>43.06876552815849</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>49.42908440014757</v>
+        <v>52.76159764805465</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>57.80162508453974</v>
+        <v>58.77715659419549</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>2.144924208882031</v>
+        <v>10.82136272607516</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>49.6944617823745</v>
+        <v>51.84398095667549</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>64.66766398747797</v>
+        <v>59.8996517669138</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-1.992320182079538</v>
+        <v>5.183026528330789</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.91917921250284</v>
+        <v>38.87814578158289</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>46.08609681987642</v>
+        <v>47.62172924404302</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-8.643738464677185</v>
+        <v>-0.8429146075865859</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>33.26900111253141</v>
+        <v>37.31378331689363</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>44.5089514385657</v>
+        <v>47.21510672361715</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>12.08044091586966</v>
+        <v>21.14127486606239</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>48.76204932836282</v>
+        <v>55.14984383881923</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>58.59914088083046</v>
+        <v>63.97476471288345</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>55.17598735238019</v>
+        <v>64.38434047036247</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>68.32538210863338</v>
+        <v>73.25325340278235</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>79.95502093315989</v>
+        <v>82.23414889034547</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>6.358734155819391</v>
+        <v>19.37730934482502</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>64.05138560762556</v>
+        <v>67.93002891347257</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>79.52311432391774</v>
+        <v>77.09266429578491</v>
       </c>
     </row>
   </sheetData>
